--- a/medicine/Enfance/Liste_des_romans_de_la_collection_Signe_de_piste/Liste_des_romans_de_la_collection_Signe_de_piste.xlsx
+++ b/medicine/Enfance/Liste_des_romans_de_la_collection_Signe_de_piste/Liste_des_romans_de_la_collection_Signe_de_piste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page recense la liste de tous les romans publiés par la collection Signe de Piste sous ses différentes appellations depuis sa création en 1937 tout éditeurs confondus. Elle comporte aussi la liste de différentes collections sœurs dérivées et dont des romans seront aussi édités ou réédités dans les collections Signe de Piste et inversement.
 </t>
@@ -511,7 +523,9 @@
           <t>Première collection (1937-1971)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'origine en 1937 les romans de la collection initiale ne sont pas numérotés, on commencera à avoir une numérotation des romans après la seconde guerre mondiale.
 Collection Signe de Piste
@@ -750,9 +764,11 @@
           <t>Collection Safari Signe de Piste 1971-1975</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A partir de 1971, la collection prend le nom de Safari Signe de piste (SSDP) avec un nouveau logo[1] et la collection repart au n°1.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A partir de 1971, la collection prend le nom de Safari Signe de piste (SSDP) avec un nouveau logo et la collection repart au n°1.
 Collection Safari Signe de Piste
 Serge Dalens (ill. Pierre Joubert), Le bracelet de vermeil : Le Prince Eric, t. 1 (Nature), Alsatia, coll. « Safari Signe de Piste » (no 1), 1971
 Michel Grimaud (ill. Pierre Joubert), Rhôor l'invincible : Les aventures de Rhôor, t. 1, Alsatia, coll. « Safari Signe de Piste » (no 2), 1971
@@ -860,7 +876,9 @@
           <t>Collection Nouveau Signe de Piste 1975-1984</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">A partir de 1975, la collection, qui est passée chez EPI, prend le nom de Nouveau Signe de de Piste (NSDP), avec un logo légèrement modifié et la numérotation repart au numéro 1 jusqu’au numéro 125. Elle est ensuite publiée par les Editions Universitaires, qui conservent le nom "Nouveau Signe de Piste" pour les premiers qu'il éditeront et changeront le nom pour reprendre "Signe de Piste" à partir du numéro 126.
 Collection Nouveau Signe de Piste
@@ -1017,7 +1035,9 @@
           <t>Collection Signe de Piste 1985-1989</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les  Editions Universitaires conserveront "Nouveau signe de piste" jusqu’au numéro 125, mais à partir du n°126 en 1985 La collection redevient Signe de Piste tout en gardant la numérotation de la collection Nouveau Signe de Piste. La présentation change aussi : Le logo disparait de la couverture et "Signe de Piste" apparait en Gros en tête de couverture.
 Depuis 1986 la collection conserve le nom "Signe de Piste" avec différentes présentations et des logos plusieurs fois remaniés.
@@ -1082,7 +1102,9 @@
           <t>Collections sœurs et associées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec son succès des collections sœurs vont apparaitre chez Alsatia avec différents noms tel que "Signe de Piste Junior" (initialement appelée Collection Prince Eric) qui cible un public plus jeune, "Rubans Noirs" qui cible un public plus âgé, la "Collection Joyeuse" plus féminine qui s’adresse aux guides, ou encore les recueils "La Fusée" régulièrement édités sous les différentes appellations de la collection, jusqu'à la collection Nouveau Signe de Piste chez l'éditeur EPI. Des romans de ces différentes collections sœurs seront réédités dans les collections Signe de Piste.
 Collection Signe de Piste Junior - Prince Éric
@@ -1185,7 +1207,43 @@
 La fusée 2  (ill. Collectif), Alsatia (no 2), 1954
 La fusée 3  (ill. Collectif), Alsatia (no 3), 1955
 Alain Gout, La Fusée  Safari Signe de Piste 1974, Alsatia (no 4), 1974
-Collections Allemandes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_romans_de_la_collection_Signe_de_piste</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_collection_Signe_de_piste</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Collections sœurs et associées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Collections Allemandes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Collection Spurbücher - Editions Alsatia
 Collection Deutscher Spurbuchverlag et Spurbuchverlag - Editions Spurbuchverlag
 (de) Eric Lesprit (Edith Lesprit) (trad. du français par W. Zettelmeier, ill. Pierre Joubert), Die heilige Wüste [« Le désert sacré »], Spurbuchverlag, coll. « Deutscher Spurbuchverlag » (no 1), 1982 (ISBN 978-3-88778-000-5)
@@ -1214,31 +1272,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Liste_des_romans_de_la_collection_Signe_de_piste</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_romans_de_la_collection_Signe_de_piste</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Pour créer certaines listes, plusieurs listes ont été recoupées et le plus souvent vérifiées en recherchant les descriptions de romans vendus neufs et d'occasion sur différents sites marchand.
 Charline Avrillault, « Signe de Piste » : histoire et analyse d’une collection octogénaire de romans scouts (1937-2020) (Mémoire de Master 2), Université de Lyon - Université Lumière Lyon 2, 2020 (présentation en ligne, lire en ligne)
